--- a/TCS_NEWUI_Scheduled Alerts Manager.xlsx
+++ b/TCS_NEWUI_Scheduled Alerts Manager.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC Repository\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFDBC0E-1998-4F0B-A387-A5FE241E2521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="12240" tabRatio="815" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="5" r:id="rId1"/>
@@ -40,7 +46,7 @@
     <definedName name="test" localSheetId="1">#REF!</definedName>
     <definedName name="test">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="181029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -652,7 +658,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -2323,6 +2329,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="30" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="30" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="30" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2332,24 +2356,6 @@
     <xf numFmtId="0" fontId="5" fillId="24" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="30" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="30" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="30" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="24" borderId="21" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2370,162 +2376,162 @@
     </xf>
   </cellXfs>
   <cellStyles count="156">
-    <cellStyle name="20% - Accent1" xfId="11"/>
-    <cellStyle name="20% - Accent1 2" xfId="2"/>
-    <cellStyle name="20% - Accent1 2 2" xfId="7"/>
-    <cellStyle name="20% - Accent1 2 2 2 2 3" xfId="13"/>
-    <cellStyle name="20% - Accent1 2 2 2 2 3 2" xfId="17"/>
-    <cellStyle name="20% - Accent1 2 2 2 2 3 3" xfId="20"/>
-    <cellStyle name="20% - Accent1 2 3" xfId="22"/>
-    <cellStyle name="20% - Accent1 2 3 2" xfId="25"/>
-    <cellStyle name="20% - Accent1 2 3 2 2" xfId="28"/>
-    <cellStyle name="20% - Accent1 2 3 2 3" xfId="5"/>
-    <cellStyle name="20% - Accent1 2 3 2 4" xfId="29"/>
-    <cellStyle name="20% - Accent2" xfId="30"/>
-    <cellStyle name="20% - Accent2 2" xfId="32"/>
-    <cellStyle name="20% - Accent2 2 2" xfId="33"/>
-    <cellStyle name="20% - Accent2 2 2 2 2 3" xfId="34"/>
-    <cellStyle name="20% - Accent2 2 2 2 2 3 2" xfId="36"/>
-    <cellStyle name="20% - Accent2 2 2 2 2 3 3" xfId="37"/>
-    <cellStyle name="20% - Accent2 2 3" xfId="35"/>
-    <cellStyle name="20% - Accent2 2 3 2" xfId="9"/>
-    <cellStyle name="20% - Accent3" xfId="39"/>
-    <cellStyle name="20% - Accent4" xfId="40"/>
-    <cellStyle name="20% - Accent5" xfId="42"/>
-    <cellStyle name="20% - Accent6" xfId="16"/>
-    <cellStyle name="40% - Accent1" xfId="3"/>
-    <cellStyle name="40% - Accent1 2" xfId="43"/>
-    <cellStyle name="40% - Accent1 2 2" xfId="45"/>
-    <cellStyle name="40% - Accent1 2 2 2 2 3 2" xfId="48"/>
-    <cellStyle name="40% - Accent1 2 2 2 2 3 2 2" xfId="51"/>
-    <cellStyle name="40% - Accent1 2 2 2 2 3 2 3" xfId="52"/>
-    <cellStyle name="40% - Accent1 2 3" xfId="54"/>
-    <cellStyle name="40% - Accent1 2 3 2" xfId="55"/>
-    <cellStyle name="40% - Accent2" xfId="12"/>
-    <cellStyle name="40% - Accent2 2" xfId="15"/>
-    <cellStyle name="40% - Accent2 2 2" xfId="38"/>
-    <cellStyle name="40% - Accent2 2 2 2 2 3 2" xfId="60"/>
-    <cellStyle name="40% - Accent2 2 2 2 2 3 2 2" xfId="62"/>
-    <cellStyle name="40% - Accent2 2 2 2 2 3 2 3" xfId="31"/>
-    <cellStyle name="40% - Accent2 2 3" xfId="58"/>
-    <cellStyle name="40% - Accent2 2 3 2" xfId="61"/>
-    <cellStyle name="40% - Accent2 2 3 2 2" xfId="138"/>
-    <cellStyle name="40% - Accent2 2 3 2 2 2" xfId="150"/>
-    <cellStyle name="40% - Accent3" xfId="6"/>
-    <cellStyle name="40% - Accent4" xfId="21"/>
-    <cellStyle name="40% - Accent5" xfId="44"/>
-    <cellStyle name="40% - Accent6" xfId="53"/>
-    <cellStyle name="60% - Accent1" xfId="41"/>
-    <cellStyle name="60% - Accent2" xfId="14"/>
-    <cellStyle name="60% - Accent3" xfId="18"/>
-    <cellStyle name="60% - Accent4" xfId="47"/>
-    <cellStyle name="60% - Accent5" xfId="63"/>
-    <cellStyle name="60% - Accent6" xfId="50"/>
-    <cellStyle name="Accent1" xfId="64"/>
-    <cellStyle name="Accent1 2" xfId="65"/>
-    <cellStyle name="Accent1 2 2" xfId="57"/>
-    <cellStyle name="Accent1 2 2 2 2 3" xfId="24"/>
-    <cellStyle name="Accent1 2 2 2 2 3 2" xfId="27"/>
-    <cellStyle name="Accent1 2 2 2 2 3 3" xfId="4"/>
-    <cellStyle name="Accent1 2 3" xfId="66"/>
-    <cellStyle name="Accent1 2 3 2" xfId="69"/>
-    <cellStyle name="Accent1 2 3 2 2" xfId="135"/>
-    <cellStyle name="Accent2" xfId="70"/>
-    <cellStyle name="Accent2 2" xfId="46"/>
-    <cellStyle name="Accent2 2 2" xfId="49"/>
-    <cellStyle name="Accent2 2 2 2 2 3" xfId="71"/>
-    <cellStyle name="Accent2 2 2 2 2 3 2" xfId="72"/>
-    <cellStyle name="Accent2 2 2 2 2 3 3" xfId="73"/>
-    <cellStyle name="Accent2 2 3" xfId="74"/>
-    <cellStyle name="Accent2 2 3 2" xfId="75"/>
-    <cellStyle name="Accent2 2 3 2 2" xfId="136"/>
-    <cellStyle name="Accent3" xfId="76"/>
-    <cellStyle name="Accent4" xfId="23"/>
-    <cellStyle name="Accent5" xfId="77"/>
-    <cellStyle name="Accent6" xfId="26"/>
-    <cellStyle name="Bad" xfId="78"/>
-    <cellStyle name="Calculation" xfId="8"/>
-    <cellStyle name="Check Cell" xfId="79"/>
-    <cellStyle name="Comma [0] 2" xfId="154"/>
-    <cellStyle name="Comma [0] 3" xfId="155"/>
-    <cellStyle name="Explanatory Text" xfId="80"/>
-    <cellStyle name="Good" xfId="81"/>
-    <cellStyle name="Heading 1" xfId="82"/>
-    <cellStyle name="Heading 2" xfId="84"/>
-    <cellStyle name="Heading 2 2" xfId="85"/>
-    <cellStyle name="Heading 2 2 2" xfId="86"/>
-    <cellStyle name="Heading 2 2 2 2 2 3 2" xfId="87"/>
-    <cellStyle name="Heading 2 2 2 2 2 3 2 2" xfId="88"/>
-    <cellStyle name="Heading 2 2 2 2 2 3 2 3" xfId="89"/>
-    <cellStyle name="Heading 2 2 3" xfId="10"/>
-    <cellStyle name="Heading 2 2 3 2" xfId="1"/>
-    <cellStyle name="Heading 3" xfId="90"/>
-    <cellStyle name="Heading 4" xfId="91"/>
+    <cellStyle name="20% - Accent1" xfId="11" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent1 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent1 2 2 2 2 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent1 2 2 2 2 3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent1 2 2 2 2 3 3" xfId="20" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - Accent1 2 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20% - Accent1 2 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - Accent1 2 3 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - Accent1 2 3 2 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - Accent1 2 3 2 4" xfId="29" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - Accent2" xfId="30" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="20% - Accent2 2 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - Accent2 2 2 2 2 3" xfId="34" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20% - Accent2 2 2 2 2 3 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20% - Accent2 2 2 2 2 3 3" xfId="37" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="20% - Accent2 2 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="20% - Accent2 2 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="20% - Accent3" xfId="39" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="20% - Accent4" xfId="40" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="20% - Accent5" xfId="42" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="20% - Accent6" xfId="16" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="40% - Accent1" xfId="3" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="40% - Accent1 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="40% - Accent1 2 2 2 2 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="40% - Accent1 2 2 2 2 3 2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="40% - Accent1 2 2 2 2 3 2 3" xfId="52" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="40% - Accent1 2 3" xfId="54" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="40% - Accent1 2 3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="40% - Accent2" xfId="12" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="40% - Accent2 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="40% - Accent2 2 2 2 2 3 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="40% - Accent2 2 2 2 2 3 2 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="40% - Accent2 2 2 2 2 3 2 3" xfId="31" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="40% - Accent2 2 3" xfId="58" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="40% - Accent2 2 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="40% - Accent2 2 3 2 2" xfId="138" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="40% - Accent2 2 3 2 2 2" xfId="150" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="40% - Accent3" xfId="6" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="40% - Accent4" xfId="21" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="40% - Accent5" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="40% - Accent6" xfId="53" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="60% - Accent1" xfId="41" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="60% - Accent2" xfId="14" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="60% - Accent3" xfId="18" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="60% - Accent4" xfId="47" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="60% - Accent5" xfId="63" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="60% - Accent6" xfId="50" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Accent1" xfId="64" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Accent1 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Accent1 2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Accent1 2 2 2 2 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Accent1 2 2 2 2 3 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Accent1 2 2 2 2 3 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Accent1 2 3" xfId="66" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Accent1 2 3 2" xfId="69" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Accent1 2 3 2 2" xfId="135" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Accent2" xfId="70" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Accent2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Accent2 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Accent2 2 2 2 2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Accent2 2 2 2 2 3 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Accent2 2 2 2 2 3 3" xfId="73" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Accent2 2 3" xfId="74" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Accent2 2 3 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Accent2 2 3 2 2" xfId="136" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Accent3" xfId="76" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Accent4" xfId="23" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Accent5" xfId="77" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Accent6" xfId="26" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Bad" xfId="78" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Calculation" xfId="8" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Check Cell" xfId="79" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Comma [0] 2" xfId="154" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Comma [0] 3" xfId="155" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Explanatory Text" xfId="80" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Good" xfId="81" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Heading 1" xfId="82" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Heading 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Heading 2 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Heading 2 2 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Heading 2 2 2 2 2 3 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Heading 2 2 2 2 2 3 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Heading 2 2 2 2 2 3 2 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Heading 2 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Heading 2 2 3 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Heading 3" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Heading 4" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
     <cellStyle name="Hyperlink" xfId="92" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="93"/>
-    <cellStyle name="Hyperlink 2 2" xfId="94"/>
-    <cellStyle name="Hyperlink 3" xfId="95"/>
-    <cellStyle name="Hyperlink 4" xfId="96"/>
-    <cellStyle name="Hyperlink 5" xfId="137"/>
-    <cellStyle name="Input" xfId="97"/>
-    <cellStyle name="Linked Cell" xfId="98"/>
-    <cellStyle name="Neutral" xfId="59"/>
+    <cellStyle name="Hyperlink 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Hyperlink 3" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Hyperlink 4" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Hyperlink 5" xfId="137" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Input" xfId="97" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Linked Cell" xfId="98" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Neutral" xfId="59" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="99"/>
-    <cellStyle name="Normal 2 2" xfId="100"/>
-    <cellStyle name="Normal 2 2 2" xfId="101"/>
-    <cellStyle name="Normal 2 2 2 2 3 2" xfId="102"/>
-    <cellStyle name="Normal 2 2 2 2 3 2 2" xfId="103"/>
-    <cellStyle name="Normal 2 2 2 2 3 2 3" xfId="104"/>
-    <cellStyle name="Normal 2 3" xfId="105"/>
-    <cellStyle name="Normal 2 4" xfId="106"/>
-    <cellStyle name="Normal 2 4 2" xfId="134"/>
-    <cellStyle name="Normal 2 4 2 2" xfId="149"/>
-    <cellStyle name="Normal 3" xfId="107"/>
-    <cellStyle name="Normal 3 2" xfId="108"/>
-    <cellStyle name="Normal 3 2 2" xfId="109"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="83"/>
-    <cellStyle name="Normal 3 2 3" xfId="110"/>
-    <cellStyle name="Normal 3 2 4" xfId="140"/>
-    <cellStyle name="Normal 3 2 4 2" xfId="143"/>
-    <cellStyle name="Normal 3 2 4 3" xfId="146"/>
-    <cellStyle name="Normal 3 2 4 3 2" xfId="152"/>
-    <cellStyle name="Normal 3 3" xfId="56"/>
-    <cellStyle name="Normal 3 3 2" xfId="111"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="112"/>
-    <cellStyle name="Normal 3 4" xfId="139"/>
-    <cellStyle name="Normal 3 4 2" xfId="151"/>
-    <cellStyle name="Normal 4" xfId="113"/>
-    <cellStyle name="Normal 5" xfId="114"/>
-    <cellStyle name="Note" xfId="68"/>
-    <cellStyle name="Output" xfId="19"/>
-    <cellStyle name="TableStyleLight1" xfId="115"/>
-    <cellStyle name="TableStyleLight1 2" xfId="116"/>
-    <cellStyle name="TableStyleLight1 2 2" xfId="117"/>
-    <cellStyle name="TableStyleLight1 2 2 2" xfId="118"/>
-    <cellStyle name="TableStyleLight1 2 2 2 2" xfId="119"/>
-    <cellStyle name="TableStyleLight1 2 2 2 4" xfId="120"/>
-    <cellStyle name="TableStyleLight1 2 3" xfId="121"/>
-    <cellStyle name="TableStyleLight1 2 4" xfId="142"/>
-    <cellStyle name="TableStyleLight1 2 4 2" xfId="145"/>
-    <cellStyle name="TableStyleLight1 2 4 3" xfId="148"/>
-    <cellStyle name="TableStyleLight1 3" xfId="122"/>
-    <cellStyle name="TableStyleLight1 3 2" xfId="123"/>
-    <cellStyle name="TableStyleLight1 3 2 2" xfId="124"/>
-    <cellStyle name="TableStyleLight1 3 2 3" xfId="125"/>
-    <cellStyle name="TableStyleLight1 3 3" xfId="126"/>
-    <cellStyle name="TableStyleLight1 3 4" xfId="141"/>
-    <cellStyle name="TableStyleLight1 3 4 2" xfId="144"/>
-    <cellStyle name="TableStyleLight1 3 4 3" xfId="147"/>
-    <cellStyle name="TableStyleLight1 3 4 3 2" xfId="153"/>
-    <cellStyle name="TableStyleLight1 4" xfId="67"/>
-    <cellStyle name="TableStyleLight1 4 2" xfId="127"/>
-    <cellStyle name="TableStyleLight1 4 3" xfId="128"/>
-    <cellStyle name="TableStyleLight1 5" xfId="129"/>
-    <cellStyle name="TableStyleLight1 5 2" xfId="130"/>
-    <cellStyle name="Title" xfId="131"/>
-    <cellStyle name="Total" xfId="132"/>
-    <cellStyle name="Warning Text" xfId="133"/>
+    <cellStyle name="Normal 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 2 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 2 2 2 2 3 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 2 2 2 2 3 2 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 2 2 2 2 3 2 3" xfId="104" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 2 3" xfId="105" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 2 4" xfId="106" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 2 4 2" xfId="134" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 2 4 2 2" xfId="149" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 3 2" xfId="108" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="109" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="110" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Normal 3 2 4" xfId="140" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Normal 3 2 4 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Normal 3 2 4 3" xfId="146" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Normal 3 2 4 3 2" xfId="152" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Normal 3 3" xfId="56" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="111" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="112" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Normal 3 4" xfId="139" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="151" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Normal 4" xfId="113" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Normal 5" xfId="114" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Note" xfId="68" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Output" xfId="19" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="TableStyleLight1" xfId="115" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="TableStyleLight1 2" xfId="116" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="TableStyleLight1 2 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="TableStyleLight1 2 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="TableStyleLight1 2 2 2 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="TableStyleLight1 2 2 2 4" xfId="120" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="TableStyleLight1 2 3" xfId="121" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="TableStyleLight1 2 4" xfId="142" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="TableStyleLight1 2 4 2" xfId="145" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="TableStyleLight1 2 4 3" xfId="148" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="TableStyleLight1 3" xfId="122" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="TableStyleLight1 3 2" xfId="123" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="TableStyleLight1 3 2 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="TableStyleLight1 3 2 3" xfId="125" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="TableStyleLight1 3 3" xfId="126" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="TableStyleLight1 3 4" xfId="141" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="TableStyleLight1 3 4 2" xfId="144" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="TableStyleLight1 3 4 3" xfId="147" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="TableStyleLight1 3 4 3 2" xfId="153" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="TableStyleLight1 4" xfId="67" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="TableStyleLight1 4 2" xfId="127" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="TableStyleLight1 4 3" xfId="128" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="TableStyleLight1 5" xfId="129" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="TableStyleLight1 5 2" xfId="130" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Title" xfId="131" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Total" xfId="132" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Warning Text" xfId="133" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2612,10 +2618,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
-  <c:style val="48"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="148"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="48"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2638,7 +2652,9 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2654,6 +2670,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2668,8 +2685,11 @@
               <a:bevelT w="63500" h="25400"/>
             </a:sp3d>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3">
@@ -2686,7 +2706,7 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-71B6-4DE3-A7AD-5B86A9C2BF24}"/>
               </c:ext>
@@ -2694,6 +2714,8 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="E22B00"/>
@@ -2708,7 +2730,7 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-71B6-4DE3-A7AD-5B86A9C2BF24}"/>
               </c:ext>
@@ -2716,6 +2738,8 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFC000"/>
@@ -2730,7 +2754,7 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-71B6-4DE3-A7AD-5B86A9C2BF24}"/>
               </c:ext>
@@ -2738,6 +2762,8 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="00B0F0"/>
@@ -2752,7 +2778,7 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-71B6-4DE3-A7AD-5B86A9C2BF24}"/>
               </c:ext>
@@ -2776,8 +2802,14 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -2824,12 +2856,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-71B6-4DE3-A7AD-5B86A9C2BF24}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="74469760"/>
         <c:axId val="62563072"/>
       </c:barChart>
@@ -2838,8 +2879,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2858,6 +2902,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="62563072"/>
@@ -2867,6 +2912,8 @@
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="74469760"/>
         <c:crosses val="autoZero"/>
@@ -2875,6 +2922,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:effectLst/>
@@ -2895,10 +2943,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
-  <c:style val="45"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="145"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="45"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2921,12 +2977,24 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="30"/>
       <c:rotY val="32"/>
+      <c:rAngAx val="0"/>
       <c:perspective val="90"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2946,6 +3014,7 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3">
@@ -2954,7 +3023,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-700B-4388-A157-532FE5806D3B}"/>
               </c:ext>
@@ -2962,6 +3031,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:explosion val="19"/>
             <c:spPr>
               <a:solidFill>
@@ -2971,7 +3041,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-700B-4388-A157-532FE5806D3B}"/>
               </c:ext>
@@ -2995,6 +3065,17 @@
                   <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-700B-4388-A157-532FE5806D3B}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -3013,6 +3094,17 @@
                   <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-700B-4388-A157-532FE5806D3B}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -3021,9 +3113,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -3056,14 +3153,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-700B-4388-A157-532FE5806D3B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
       </c:pie3DChart>
       <c:spPr>
@@ -3084,9 +3187,11 @@
           <c:h val="7.1280252974084315E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln w="0"/>
@@ -3108,9 +3213,20 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -3135,6 +3251,7 @@
           </c:spPr>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="92D050"/>
@@ -3143,7 +3260,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-25D4-4E58-AB57-52CC97BAF3DE}"/>
               </c:ext>
@@ -3151,6 +3268,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -3159,7 +3277,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-25D4-4E58-AB57-52CC97BAF3DE}"/>
               </c:ext>
@@ -3167,6 +3285,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFC000"/>
@@ -3175,7 +3294,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-25D4-4E58-AB57-52CC97BAF3DE}"/>
               </c:ext>
@@ -3183,6 +3302,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="00B0F0"/>
@@ -3191,7 +3311,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-25D4-4E58-AB57-52CC97BAF3DE}"/>
               </c:ext>
@@ -3238,12 +3358,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-25D4-4E58-AB57-52CC97BAF3DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -3330,6 +3459,7 @@
           <c:h val="0.95693837006674254"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -3356,6 +3486,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3413,7 +3544,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3451,7 +3582,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3489,7 +3620,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB276036-E4AE-4D63-9C65-0694CB3986A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB276036-E4AE-4D63-9C65-0694CB3986A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3501,7 +3632,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3521,7 +3652,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3593,7 +3724,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AF65C03-9B72-4D6B-9DD9-6AFF172BC3B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AF65C03-9B72-4D6B-9DD9-6AFF172BC3B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3727,7 +3858,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cmpd="sng">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3777,7 +3908,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67F1DD6-8FFA-4013-AC77-D7090A499C80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67F1DD6-8FFA-4013-AC77-D7090A499C80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4128,7 +4259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4277,7 +4408,7 @@
     <mergeCell ref="G6:G7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A8" location="'SMART- Scheduled Alerts Manager'!A1" display="SMART- Scheduled Alerts Manager"/>
+    <hyperlink ref="A8" location="'SMART- Scheduled Alerts Manager'!A1" display="SMART- Scheduled Alerts Manager" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4286,10 +4417,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -5075,12 +5206,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H960"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
@@ -5968,12 +6097,12 @@
       <c r="A18" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="88"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="85"/>
       <c r="F18" s="45" t="s">
         <v>43</v>
       </c>
@@ -5986,14 +6115,14 @@
       <c r="A19" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="91"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="88"/>
     </row>
     <row r="20" spans="1:7" s="43" customFormat="1">
       <c r="A20" s="48" t="s">
@@ -6092,23 +6221,23 @@
       <c r="A25" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="83"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="85"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="91"/>
     </row>
     <row r="26" spans="1:7" s="43" customFormat="1">
       <c r="A26" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="88"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="85"/>
       <c r="F26" s="45" t="s">
         <v>43</v>
       </c>
@@ -6121,14 +6250,14 @@
       <c r="A27" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="91"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="88"/>
     </row>
     <row r="28" spans="1:7" s="43" customFormat="1">
       <c r="A28" s="48" t="s">
@@ -6208,23 +6337,23 @@
       <c r="A32" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="85"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="91"/>
     </row>
     <row r="33" spans="1:7" s="43" customFormat="1">
       <c r="A33" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="86" t="s">
+      <c r="B33" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="88"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="85"/>
       <c r="F33" s="45" t="s">
         <v>43</v>
       </c>
@@ -6237,14 +6366,14 @@
       <c r="A34" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="89" t="s">
+      <c r="B34" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="91"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="88"/>
     </row>
     <row r="35" spans="1:7" s="43" customFormat="1">
       <c r="A35" s="48" t="s">
@@ -6360,23 +6489,23 @@
       <c r="A41" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="83"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="85"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="91"/>
     </row>
     <row r="42" spans="1:7" s="43" customFormat="1">
       <c r="A42" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="B42" s="86" t="s">
+      <c r="B42" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="88"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="85"/>
       <c r="F42" s="45" t="s">
         <v>43</v>
       </c>
@@ -6389,14 +6518,14 @@
       <c r="A43" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="89" t="s">
+      <c r="B43" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="90"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="91"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="88"/>
     </row>
     <row r="44" spans="1:7" s="43" customFormat="1">
       <c r="A44" s="48" t="s">
@@ -6514,23 +6643,23 @@
       <c r="A50" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="83"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="85"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="90"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="91"/>
     </row>
     <row r="51" spans="1:7" s="55" customFormat="1">
       <c r="A51" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="86" t="s">
+      <c r="B51" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="87"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="88"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="85"/>
       <c r="F51" s="45" t="s">
         <v>43</v>
       </c>
@@ -6543,14 +6672,14 @@
       <c r="A52" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="89" t="s">
+      <c r="B52" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="90"/>
-      <c r="D52" s="90"/>
-      <c r="E52" s="90"/>
-      <c r="F52" s="90"/>
-      <c r="G52" s="91"/>
+      <c r="C52" s="87"/>
+      <c r="D52" s="87"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="87"/>
+      <c r="G52" s="88"/>
     </row>
     <row r="53" spans="1:7" s="43" customFormat="1">
       <c r="A53" s="48" t="s">
@@ -6649,23 +6778,23 @@
       <c r="A58" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="83"/>
-      <c r="C58" s="84"/>
-      <c r="D58" s="84"/>
-      <c r="E58" s="84"/>
-      <c r="F58" s="84"/>
-      <c r="G58" s="85"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="90"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="90"/>
+      <c r="F58" s="90"/>
+      <c r="G58" s="91"/>
     </row>
     <row r="59" spans="1:7" s="43" customFormat="1">
       <c r="A59" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="B59" s="86" t="s">
+      <c r="B59" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="88"/>
+      <c r="C59" s="84"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="85"/>
       <c r="F59" s="45" t="s">
         <v>43</v>
       </c>
@@ -6678,14 +6807,14 @@
       <c r="A60" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B60" s="89" t="s">
+      <c r="B60" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="90"/>
-      <c r="D60" s="90"/>
-      <c r="E60" s="90"/>
-      <c r="F60" s="90"/>
-      <c r="G60" s="91"/>
+      <c r="C60" s="87"/>
+      <c r="D60" s="87"/>
+      <c r="E60" s="87"/>
+      <c r="F60" s="87"/>
+      <c r="G60" s="88"/>
     </row>
     <row r="61" spans="1:7" s="43" customFormat="1">
       <c r="A61" s="48" t="s">
@@ -6788,23 +6917,23 @@
       <c r="A66" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="83"/>
-      <c r="C66" s="84"/>
-      <c r="D66" s="84"/>
-      <c r="E66" s="84"/>
-      <c r="F66" s="84"/>
-      <c r="G66" s="85"/>
+      <c r="B66" s="89"/>
+      <c r="C66" s="90"/>
+      <c r="D66" s="90"/>
+      <c r="E66" s="90"/>
+      <c r="F66" s="90"/>
+      <c r="G66" s="91"/>
     </row>
     <row r="67" spans="1:7" s="43" customFormat="1">
       <c r="A67" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="B67" s="86" t="s">
+      <c r="B67" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="C67" s="87"/>
-      <c r="D67" s="87"/>
-      <c r="E67" s="88"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="85"/>
       <c r="F67" s="45" t="s">
         <v>43</v>
       </c>
@@ -6817,14 +6946,14 @@
       <c r="A68" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="89" t="s">
+      <c r="B68" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="C68" s="90"/>
-      <c r="D68" s="90"/>
-      <c r="E68" s="90"/>
-      <c r="F68" s="90"/>
-      <c r="G68" s="91"/>
+      <c r="C68" s="87"/>
+      <c r="D68" s="87"/>
+      <c r="E68" s="87"/>
+      <c r="F68" s="87"/>
+      <c r="G68" s="88"/>
     </row>
     <row r="69" spans="1:7" s="43" customFormat="1">
       <c r="A69" s="48" t="s">
@@ -6942,12 +7071,12 @@
       <c r="A75" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="B75" s="86" t="s">
+      <c r="B75" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="C75" s="87"/>
-      <c r="D75" s="87"/>
-      <c r="E75" s="88"/>
+      <c r="C75" s="84"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="85"/>
       <c r="F75" s="45" t="s">
         <v>43</v>
       </c>
@@ -6960,14 +7089,14 @@
       <c r="A76" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B76" s="89" t="s">
+      <c r="B76" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="C76" s="90"/>
-      <c r="D76" s="90"/>
-      <c r="E76" s="90"/>
-      <c r="F76" s="90"/>
-      <c r="G76" s="91"/>
+      <c r="C76" s="87"/>
+      <c r="D76" s="87"/>
+      <c r="E76" s="87"/>
+      <c r="F76" s="87"/>
+      <c r="G76" s="88"/>
     </row>
     <row r="77" spans="1:7" s="43" customFormat="1">
       <c r="A77" s="48" t="s">
@@ -7134,23 +7263,23 @@
       <c r="A86" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B86" s="83"/>
-      <c r="C86" s="84"/>
-      <c r="D86" s="84"/>
-      <c r="E86" s="84"/>
-      <c r="F86" s="84"/>
-      <c r="G86" s="85"/>
+      <c r="B86" s="89"/>
+      <c r="C86" s="90"/>
+      <c r="D86" s="90"/>
+      <c r="E86" s="90"/>
+      <c r="F86" s="90"/>
+      <c r="G86" s="91"/>
     </row>
     <row r="87" spans="1:7" s="43" customFormat="1">
       <c r="A87" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B87" s="86" t="s">
+      <c r="B87" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="C87" s="87"/>
-      <c r="D87" s="87"/>
-      <c r="E87" s="88"/>
+      <c r="C87" s="84"/>
+      <c r="D87" s="84"/>
+      <c r="E87" s="85"/>
       <c r="F87" s="45" t="s">
         <v>43</v>
       </c>
@@ -7163,14 +7292,14 @@
       <c r="A88" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B88" s="89" t="s">
+      <c r="B88" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="C88" s="90"/>
-      <c r="D88" s="90"/>
-      <c r="E88" s="90"/>
-      <c r="F88" s="90"/>
-      <c r="G88" s="91"/>
+      <c r="C88" s="87"/>
+      <c r="D88" s="87"/>
+      <c r="E88" s="87"/>
+      <c r="F88" s="87"/>
+      <c r="G88" s="88"/>
     </row>
     <row r="89" spans="1:7" s="43" customFormat="1">
       <c r="A89" s="48" t="s">
@@ -7286,23 +7415,23 @@
       <c r="A95" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B95" s="83"/>
-      <c r="C95" s="84"/>
-      <c r="D95" s="84"/>
-      <c r="E95" s="84"/>
-      <c r="F95" s="84"/>
-      <c r="G95" s="85"/>
+      <c r="B95" s="89"/>
+      <c r="C95" s="90"/>
+      <c r="D95" s="90"/>
+      <c r="E95" s="90"/>
+      <c r="F95" s="90"/>
+      <c r="G95" s="91"/>
     </row>
     <row r="96" spans="1:7" s="43" customFormat="1">
       <c r="A96" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="B96" s="86" t="s">
+      <c r="B96" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C96" s="87"/>
-      <c r="D96" s="87"/>
-      <c r="E96" s="88"/>
+      <c r="C96" s="84"/>
+      <c r="D96" s="84"/>
+      <c r="E96" s="85"/>
       <c r="F96" s="45" t="s">
         <v>43</v>
       </c>
@@ -7315,14 +7444,14 @@
       <c r="A97" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B97" s="89" t="s">
+      <c r="B97" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="C97" s="90"/>
-      <c r="D97" s="90"/>
-      <c r="E97" s="90"/>
-      <c r="F97" s="90"/>
-      <c r="G97" s="91"/>
+      <c r="C97" s="87"/>
+      <c r="D97" s="87"/>
+      <c r="E97" s="87"/>
+      <c r="F97" s="87"/>
+      <c r="G97" s="88"/>
     </row>
     <row r="98" spans="1:7" s="43" customFormat="1" ht="28.5" customHeight="1">
       <c r="A98" s="48" t="s">
@@ -7455,23 +7584,23 @@
       <c r="A105" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B105" s="83"/>
-      <c r="C105" s="84"/>
-      <c r="D105" s="84"/>
-      <c r="E105" s="84"/>
-      <c r="F105" s="84"/>
-      <c r="G105" s="85"/>
+      <c r="B105" s="89"/>
+      <c r="C105" s="90"/>
+      <c r="D105" s="90"/>
+      <c r="E105" s="90"/>
+      <c r="F105" s="90"/>
+      <c r="G105" s="91"/>
     </row>
     <row r="106" spans="1:7" s="43" customFormat="1">
       <c r="A106" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="B106" s="86" t="s">
+      <c r="B106" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C106" s="87"/>
-      <c r="D106" s="87"/>
-      <c r="E106" s="88"/>
+      <c r="C106" s="84"/>
+      <c r="D106" s="84"/>
+      <c r="E106" s="85"/>
       <c r="F106" s="45" t="s">
         <v>43</v>
       </c>
@@ -7484,14 +7613,14 @@
       <c r="A107" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B107" s="89" t="s">
+      <c r="B107" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="C107" s="90"/>
-      <c r="D107" s="90"/>
-      <c r="E107" s="90"/>
-      <c r="F107" s="90"/>
-      <c r="G107" s="91"/>
+      <c r="C107" s="87"/>
+      <c r="D107" s="87"/>
+      <c r="E107" s="87"/>
+      <c r="F107" s="87"/>
+      <c r="G107" s="88"/>
     </row>
     <row r="108" spans="1:7" s="43" customFormat="1">
       <c r="A108" s="48" t="s">
@@ -7592,23 +7721,23 @@
       <c r="A113" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B113" s="83"/>
-      <c r="C113" s="84"/>
-      <c r="D113" s="84"/>
-      <c r="E113" s="84"/>
-      <c r="F113" s="84"/>
-      <c r="G113" s="85"/>
+      <c r="B113" s="89"/>
+      <c r="C113" s="90"/>
+      <c r="D113" s="90"/>
+      <c r="E113" s="90"/>
+      <c r="F113" s="90"/>
+      <c r="G113" s="91"/>
     </row>
     <row r="114" spans="1:7" s="43" customFormat="1">
       <c r="A114" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="B114" s="86" t="s">
+      <c r="B114" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="C114" s="87"/>
-      <c r="D114" s="87"/>
-      <c r="E114" s="88"/>
+      <c r="C114" s="84"/>
+      <c r="D114" s="84"/>
+      <c r="E114" s="85"/>
       <c r="F114" s="45" t="s">
         <v>43</v>
       </c>
@@ -7621,14 +7750,14 @@
       <c r="A115" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B115" s="89" t="s">
+      <c r="B115" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="C115" s="90"/>
-      <c r="D115" s="90"/>
-      <c r="E115" s="90"/>
-      <c r="F115" s="90"/>
-      <c r="G115" s="91"/>
+      <c r="C115" s="87"/>
+      <c r="D115" s="87"/>
+      <c r="E115" s="87"/>
+      <c r="F115" s="87"/>
+      <c r="G115" s="88"/>
     </row>
     <row r="116" spans="1:7" s="43" customFormat="1">
       <c r="A116" s="48" t="s">
@@ -7729,23 +7858,23 @@
       <c r="A121" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B121" s="83"/>
-      <c r="C121" s="84"/>
-      <c r="D121" s="84"/>
-      <c r="E121" s="84"/>
-      <c r="F121" s="84"/>
-      <c r="G121" s="85"/>
+      <c r="B121" s="89"/>
+      <c r="C121" s="90"/>
+      <c r="D121" s="90"/>
+      <c r="E121" s="90"/>
+      <c r="F121" s="90"/>
+      <c r="G121" s="91"/>
     </row>
     <row r="122" spans="1:7" s="43" customFormat="1">
       <c r="A122" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="B122" s="86" t="s">
+      <c r="B122" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="C122" s="87"/>
-      <c r="D122" s="87"/>
-      <c r="E122" s="88"/>
+      <c r="C122" s="84"/>
+      <c r="D122" s="84"/>
+      <c r="E122" s="85"/>
       <c r="F122" s="45" t="s">
         <v>43</v>
       </c>
@@ -7758,14 +7887,14 @@
       <c r="A123" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B123" s="89" t="s">
+      <c r="B123" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="C123" s="90"/>
-      <c r="D123" s="90"/>
-      <c r="E123" s="90"/>
-      <c r="F123" s="90"/>
-      <c r="G123" s="91"/>
+      <c r="C123" s="87"/>
+      <c r="D123" s="87"/>
+      <c r="E123" s="87"/>
+      <c r="F123" s="87"/>
+      <c r="G123" s="88"/>
     </row>
     <row r="124" spans="1:7" s="43" customFormat="1">
       <c r="A124" s="48" t="s">
@@ -7841,23 +7970,23 @@
       <c r="A130" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B130" s="83"/>
-      <c r="C130" s="84"/>
-      <c r="D130" s="84"/>
-      <c r="E130" s="84"/>
-      <c r="F130" s="84"/>
-      <c r="G130" s="85"/>
+      <c r="B130" s="89"/>
+      <c r="C130" s="90"/>
+      <c r="D130" s="90"/>
+      <c r="E130" s="90"/>
+      <c r="F130" s="90"/>
+      <c r="G130" s="91"/>
     </row>
     <row r="131" spans="1:7" s="43" customFormat="1">
       <c r="A131" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="B131" s="86" t="s">
+      <c r="B131" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="C131" s="87"/>
-      <c r="D131" s="87"/>
-      <c r="E131" s="88"/>
+      <c r="C131" s="84"/>
+      <c r="D131" s="84"/>
+      <c r="E131" s="85"/>
       <c r="F131" s="45" t="s">
         <v>43</v>
       </c>
@@ -7870,14 +7999,14 @@
       <c r="A132" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B132" s="89" t="s">
+      <c r="B132" s="86" t="s">
         <v>169</v>
       </c>
-      <c r="C132" s="90"/>
-      <c r="D132" s="90"/>
-      <c r="E132" s="90"/>
-      <c r="F132" s="90"/>
-      <c r="G132" s="91"/>
+      <c r="C132" s="87"/>
+      <c r="D132" s="87"/>
+      <c r="E132" s="87"/>
+      <c r="F132" s="87"/>
+      <c r="G132" s="88"/>
     </row>
     <row r="133" spans="1:7" s="43" customFormat="1">
       <c r="A133" s="48" t="s">
@@ -7921,23 +8050,23 @@
       <c r="A135" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B135" s="83"/>
-      <c r="C135" s="84"/>
-      <c r="D135" s="84"/>
-      <c r="E135" s="84"/>
-      <c r="F135" s="84"/>
-      <c r="G135" s="85"/>
+      <c r="B135" s="89"/>
+      <c r="C135" s="90"/>
+      <c r="D135" s="90"/>
+      <c r="E135" s="90"/>
+      <c r="F135" s="90"/>
+      <c r="G135" s="91"/>
     </row>
     <row r="136" spans="1:7" s="43" customFormat="1">
       <c r="A136" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="B136" s="86" t="s">
+      <c r="B136" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="C136" s="87"/>
-      <c r="D136" s="87"/>
-      <c r="E136" s="88"/>
+      <c r="C136" s="84"/>
+      <c r="D136" s="84"/>
+      <c r="E136" s="85"/>
       <c r="F136" s="45" t="s">
         <v>43</v>
       </c>
@@ -7950,14 +8079,14 @@
       <c r="A137" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B137" s="89" t="s">
+      <c r="B137" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="C137" s="90"/>
-      <c r="D137" s="90"/>
-      <c r="E137" s="90"/>
-      <c r="F137" s="90"/>
-      <c r="G137" s="91"/>
+      <c r="C137" s="87"/>
+      <c r="D137" s="87"/>
+      <c r="E137" s="87"/>
+      <c r="F137" s="87"/>
+      <c r="G137" s="88"/>
     </row>
     <row r="138" spans="1:7" s="43" customFormat="1">
       <c r="A138" s="48" t="s">
@@ -7999,12 +8128,12 @@
       <c r="A140" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B140" s="83"/>
-      <c r="C140" s="84"/>
-      <c r="D140" s="84"/>
-      <c r="E140" s="84"/>
-      <c r="F140" s="84"/>
-      <c r="G140" s="85"/>
+      <c r="B140" s="89"/>
+      <c r="C140" s="90"/>
+      <c r="D140" s="90"/>
+      <c r="E140" s="90"/>
+      <c r="F140" s="90"/>
+      <c r="G140" s="91"/>
     </row>
     <row r="141" spans="1:7" s="43" customFormat="1">
       <c r="A141"/>
@@ -15385,6 +15514,45 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="B131:E131"/>
+    <mergeCell ref="B132:G132"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="B136:E136"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B97:G97"/>
     <mergeCell ref="B106:E106"/>
     <mergeCell ref="B122:E122"/>
     <mergeCell ref="B123:G123"/>
@@ -15394,48 +15562,9 @@
     <mergeCell ref="B114:E114"/>
     <mergeCell ref="B115:G115"/>
     <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B140:G140"/>
-    <mergeCell ref="B131:E131"/>
-    <mergeCell ref="B132:G132"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="B136:E136"/>
-    <mergeCell ref="B137:G137"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="&#10;" sqref="F450:F456 F669:F671 F659:F664 F461:F470 F475:F478 F483:F488 F493:F501 F506:F515 F520:F530 F535:F545 F561:F567 F589:F591 F550:F556 F572:F578 F583:F584 F596:F602 F607:F613 F629:F631 F618:F624 F636:F639 F644:F646 F651:F654 F443:F445 F139 F78:F85 F70:F74 F21:F24 F29:F31 F36:F40 F45:F49 F54:F57 F62:F65 F90:F94 F99:F104 F109:F112 F117:F120 F125:F129 F134">
+    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F450:F456 F669:F671 F659:F664 F461:F470 F475:F478 F483:F488 F493:F501 F506:F515 F520:F530 F535:F545 F561:F567 F589:F591 F550:F556 F572:F578 F583:F584 F596:F602 F607:F613 F629:F631 F618:F624 F636:F639 F644:F646 F651:F654 F443:F445 F139 F78:F85 F70:F74 F21:F24 F29:F31 F36:F40 F45:F49 F54:F57 F62:F65 F90:F94 F99:F104 F109:F112 F117:F120 F125:F129 F134" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>
